--- a/medicine/Médecine vétérinaire/Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)/Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca).xlsx
+++ b/medicine/Médecine vétérinaire/Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)/Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université des sciences agronomiques et de la médecine vétérinaire (en roumain : Universitatea de Științe Agricole și Medicină Veterinară ou USAMV) est une université publique fondée en 1869 à Cluj-Napoca, Transylvanie, Roumanie. C'est l'un des établissements d'enseignement supérieur agricole les plus anciens d'Europe. Par ailleurs, l'USAMV est l'une des universités roumaines les plus réputées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2007-2008, il y avait 6 918 étudiants à l'USAMV répartis dans quatre facultés (UFR)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 2007-2008, il y avait 6 918 étudiants à l'USAMV répartis dans quatre facultés (UFR).
 L'USAMV en chiffres :
 477 employés
 une maison d'édition (Editura AcademicPres) et une imprimerie
@@ -547,12 +563,80 @@
 une résidence universitaire avec 1 047 places
 un restaurant universitaire
 un pub avec 180 places
-une base sportive
-Direction
-Président : Dr. Liviu Al. Mărghitaș
-Recteur : Prof. Dr. Cornel Catoi
-Relations internationales
-Affiliations[2] de l'USAMV :
+une base sportive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Président : Dr. Liviu Al. Mărghitaș
+Recteur : Prof. Dr. Cornel Catoi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Relations internationales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Affiliations de l'USAMV :
 EUA (European University Association)
 EAEVE (The European Association of Establishments for Veterinary Education)
 AUF (Association Universitaire de la Francophonie)
@@ -560,8 +644,43 @@
 BSUN (Black Sea Universities Network)
 EARMA (European Association of Research Managers and Administrators).
 L'USAMV entretient des relations de coopération avec plus de 50 universités de plus de 30 pays de quatre continents. Elle accueille des étudiants étrangers provenant de ces quatre continents.
-Composantes
-L'USAMV comporte quatre facultés : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Composantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'USAMV comporte quatre facultés : 
 Faculté d'Agriculture
 Faculté d'Horticulture
 Faculté de Zootechnie et de Biotechnologies
@@ -569,111 +688,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Formations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Licence
-La durée des études varie en fonction de la spécialisation choisie : 3 ans pour obtenir un diplôme de "licencié en biologie", 4 ans pour un diplôme d'ingénieur (toutes spécialisations confondues) et 6 ans pour un diplôme de médecin vétérinaire. Presque toutes les études de premier et de deuxième cycle se font en roumain. Seule la spécialisation médecine vétérinaire peut être étudiée aussi en anglais[3]ou en français.
-Master
-La durée des études est de 3 ou 4 semestres, en fonction de la spécialisation choisie.
-Doctorat
-La durée des études est de 3 ou 4 ans, en fonction de la spécialisation choisie.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Recherche</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'USAMV accueille 21 centres et laboratoires de recherche. En 2007-2008, l'université a établi 238 contrats de recherche[1]. Le chercheur en parasitologie Andrei Daniel Mihalca est professeur à l'USAMV.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vie étudiante</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>plusieurs associations d'étudiants ;
-club culture (musique, danse, photo, ikebana, etc.)[4].</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,10 +709,189 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Licence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La durée des études varie en fonction de la spécialisation choisie : 3 ans pour obtenir un diplôme de "licencié en biologie", 4 ans pour un diplôme d'ingénieur (toutes spécialisations confondues) et 6 ans pour un diplôme de médecin vétérinaire. Presque toutes les études de premier et de deuxième cycle se font en roumain. Seule la spécialisation médecine vétérinaire peut être étudiée aussi en anglaisou en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La durée des études est de 3 ou 4 semestres, en fonction de la spécialisation choisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Doctorat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La durée des études est de 3 ou 4 ans, en fonction de la spécialisation choisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'USAMV accueille 21 centres et laboratoires de recherche. En 2007-2008, l'université a établi 238 contrats de recherche. Le chercheur en parasitologie Andrei Daniel Mihalca est professeur à l'USAMV.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vie étudiante</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>plusieurs associations d'étudiants ;
+club culture (musique, danse, photo, ikebana, etc.).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Université_des_sciences_agronomiques_et_vétérinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_des_sciences_agronomiques_et_v%C3%A9t%C3%A9rinaires_(Cluj-Napoca)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Anciens étudiants</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dacian Cioloș : ancien ministre de l'agriculture (d'octobre 2007 à décembre 2008) puis commissaire européen à l'Agriculture et au Développement rural, au sein de la commission Barroso II (2009-2014)
 Vasile Velican : professeur des universités, académicien ;
